--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6CC2A9-27A2-443B-98DE-2908BF1BF987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C735A0-12BD-4323-9AEC-65658389E011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,11 +424,11 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C2">
-        <f ca="1">B2*0.5</f>
-        <v>0.12</v>
+        <f ca="1">B2*0.25</f>
+        <v>5.7500000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -440,8 +440,8 @@
         <v>0.26</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C25" ca="1" si="0">B3*0.5</f>
-        <v>0.13</v>
+        <f t="shared" ref="C3:C25" ca="1" si="0">B3*0.25</f>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -449,12 +449,12 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B26" ca="1" si="1">RANDBETWEEN(20,40)/100</f>
+        <f t="shared" ref="B4:B25" ca="1" si="1">RANDBETWEEN(20,40)/100</f>
         <v>0.22</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,11 +463,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13500000000000001</v>
+        <v>5.2499999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -476,11 +476,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14499999999999999</v>
+        <v>5.7500000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,11 +489,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -502,11 +502,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.115</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -515,11 +515,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="C9">
-        <f ca="1">B9*0.5</f>
-        <v>0.16</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2499999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,11 +528,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.115</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -541,10 +541,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C11">
-        <v>0.17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -553,10 +554,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C12">
-        <v>0.16</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -565,10 +567,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="C13">
-        <v>0.17499999999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -577,10 +580,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,10 +593,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="C15">
-        <v>0.18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2500000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -601,10 +606,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="C16">
-        <v>0.17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -613,10 +619,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="C17">
-        <v>0.16</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7500000000000004E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -625,10 +632,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="C18">
-        <v>0.17499999999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,10 +645,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="C19">
-        <v>0.17499999999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -649,11 +658,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="C20">
-        <f ca="1">B16*0.5</f>
-        <v>0.13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7500000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,11 +671,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="C21">
-        <f ca="1">B17*0.5</f>
-        <v>0.11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7500000000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,11 +684,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <f ca="1">B18*0.5</f>
-        <v>0.155</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -688,11 +697,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="C23">
-        <f ca="1">B19*0.5</f>
-        <v>0.15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2500000000000004E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -701,11 +710,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="C24">
-        <f ca="1">B20*0.5</f>
-        <v>0.105</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -714,11 +723,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="C25">
-        <f ca="1">B21*0.5</f>
-        <v>0.125</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C735A0-12BD-4323-9AEC-65658389E011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A54BC8E-FCEB-4674-A539-7DA1625ECCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>elec</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>elec_sold</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NG_sold</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915BB96-A88E-4797-BAC2-270B960E39C0}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,7 +413,7 @@
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -417,317 +423,515 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.23</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C2">
-        <f ca="1">B2*0.25</f>
-        <v>5.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">B2*0.5</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(5,15)/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <f ca="1">D2*0.5</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C25" ca="1" si="0">B3*0.25</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">B3*0.5</f>
+        <v>0.19</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D25" ca="1" si="0">RANDBETWEEN(5,15)/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E25" ca="1" si="1">D3*0.5</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B25" ca="1" si="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.22</v>
+        <f t="shared" ref="B4:D25" ca="1" si="2">RANDBETWEEN(20,40)/100</f>
+        <v>0.3</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C4:C25" ca="1" si="3">B4*0.5</f>
+        <v>0.15</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.23</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2499999999999995E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.155</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.36</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2499999999999995E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.115</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.39</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.115</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.33</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5000000000000006E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.105</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A54BC8E-FCEB-4674-A539-7DA1625ECCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A36214A-3982-4BA4-92C1-13D4DD988210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>elec_sold</t>
   </si>
   <si>
-    <t>NG</t>
+    <t>nat_gas</t>
   </si>
   <si>
-    <t>NG_sold</t>
+    <t>nat_gas_sold</t>
   </si>
 </sst>
 </file>
@@ -405,12 +405,13 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -436,19 +437,19 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.28999999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="C2">
         <f ca="1">B2*0.5</f>
-        <v>0.14499999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(5,15)/100</f>
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E2">
         <f ca="1">D2*0.5</f>
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -457,19 +458,19 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
         <f ca="1">B3*0.5</f>
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D25" ca="1" si="0">RANDBETWEEN(5,15)/100</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" ca="1" si="1">D3*0.5</f>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -477,12 +478,12 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:D25" ca="1" si="2">RANDBETWEEN(20,40)/100</f>
-        <v>0.3</v>
+        <f t="shared" ref="B4:B25" ca="1" si="2">RANDBETWEEN(20,40)/100</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C25" ca="1" si="3">B4*0.5</f>
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
@@ -499,19 +500,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -520,19 +521,19 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -541,19 +542,19 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -562,19 +563,19 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,19 +584,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.155</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -604,19 +605,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.115</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -625,19 +626,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -646,11 +647,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
@@ -667,19 +668,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.115</v>
+        <v>0.15</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -688,19 +689,19 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -709,19 +710,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19500000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -730,19 +731,19 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -751,19 +752,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.185</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -772,19 +773,19 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.115</v>
+        <v>0.17</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,19 +794,19 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,19 +815,19 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -835,19 +836,19 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -856,19 +857,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -877,19 +878,19 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,19 +899,19 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -919,19 +920,19 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.105</v>
+        <v>0.16</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A36214A-3982-4BA4-92C1-13D4DD988210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47255A3B-D4FD-427B-8561-4C1758A7DC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
+    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="23040" windowHeight="12204" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,19 +437,19 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="C2">
         <f ca="1">B2*0.5</f>
-        <v>0.115</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(5,15)/100</f>
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E2">
         <f ca="1">D2*0.5</f>
-        <v>6.5000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -458,19 +458,19 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C3">
         <f ca="1">B3*0.5</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D25" ca="1" si="0">RANDBETWEEN(5,15)/100</f>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" ca="1" si="1">D3*0.5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -479,19 +479,19 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B25" ca="1" si="2">RANDBETWEEN(20,40)/100</f>
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C25" ca="1" si="3">B4*0.5</f>
-        <v>0.14499999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -500,19 +500,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -521,19 +521,19 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -542,19 +542,19 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -563,19 +563,19 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28999999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14499999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -584,19 +584,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -605,19 +605,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.115</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,19 +626,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -647,19 +647,19 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -668,11 +668,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
@@ -689,11 +689,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
@@ -710,19 +710,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,19 +731,19 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -752,19 +752,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -773,19 +773,19 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.125</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -794,19 +794,19 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -815,11 +815,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17499999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
@@ -836,19 +836,19 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -857,19 +857,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -878,19 +878,19 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -899,19 +899,19 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.155</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,19 +920,19 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47255A3B-D4FD-427B-8561-4C1758A7DC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8592D4-C6DF-42EF-90D3-1062082F2C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="23040" windowHeight="12204" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>elec</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>nat_gas_sold</t>
+  </si>
+  <si>
+    <t>carbon</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915BB96-A88E-4797-BAC2-270B960E39C0}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +417,7 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -430,227 +433,270 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="C2">
         <f ca="1">B2*0.5</f>
-        <v>0.13500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(5,15)/100</f>
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E2">
         <f ca="1">D2*0.5</f>
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F2">
+        <f ca="1">RANDBETWEEN(90,120)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="C3">
         <f ca="1">B3*0.5</f>
-        <v>0.15</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D25" ca="1" si="0">RANDBETWEEN(5,15)/100</f>
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" ca="1" si="1">D3*0.5</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F25" ca="1" si="2">RANDBETWEEN(90,120)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B25" ca="1" si="2">RANDBETWEEN(20,40)/100</f>
-        <v>0.34</v>
+        <f t="shared" ref="B4:B25" ca="1" si="3">RANDBETWEEN(20,40)/100</f>
+        <v>0.32</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C25" ca="1" si="3">B4*0.5</f>
-        <v>0.17</v>
+        <f t="shared" ref="C4:C25" ca="1" si="4">B4*0.5</f>
+        <v>0.16</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.19500000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.125</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.105</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f t="shared" ca="1" si="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28999999999999998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14499999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="2"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.39</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="D12">
@@ -661,278 +707,334 @@
         <f t="shared" ca="1" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <f t="shared" ca="1" si="2"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.24</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.33</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.38</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.33</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.36</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.32</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.31</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.155</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28999999999999998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.37</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14499999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.185</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.25</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.125</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.155</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28999999999999998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14499999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.125</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8592D4-C6DF-42EF-90D3-1062082F2C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F809AD03-70D0-46CE-9A71-06E7462A34B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915BB96-A88E-4797-BAC2-270B960E39C0}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +417,7 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -437,342 +437,333 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
         <f ca="1">B2*0.5</f>
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(5,15)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E2">
         <f ca="1">D2*0.5</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="C3">
         <f ca="1">B3*0.5</f>
-        <v>0.13500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D25" ca="1" si="0">RANDBETWEEN(5,15)/100</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" ca="1" si="1">D3*0.5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" ca="1" si="2">RANDBETWEEN(90,120)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B25" ca="1" si="3">RANDBETWEEN(20,40)/100</f>
+        <f t="shared" ref="B4:B25" ca="1" si="2">RANDBETWEEN(20,40)/100</f>
         <v>0.32</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C25" ca="1" si="4">B4*0.5</f>
+        <f t="shared" ref="C4:C25" ca="1" si="3">B4*0.5</f>
         <v>0.16</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="2"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="2"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.19</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.125</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="2"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.15</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="2"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.115</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.115</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="2"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.13500000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="2"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.19500000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="2"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.16500000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="2"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.155</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.19500000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
@@ -783,33 +774,31 @@
         <v>5.5E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="2"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.16500000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -817,24 +806,23 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.19500000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.155</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
       <c r="F17">
-        <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -842,24 +830,23 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.18</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -867,12 +854,12 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.16</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
@@ -883,8 +870,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -892,24 +878,23 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.155</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -917,24 +902,23 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.185</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -942,24 +926,23 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.125</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -967,24 +950,23 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.155</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -992,24 +974,23 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.19</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.185</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1017,24 +998,28 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.125</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F809AD03-70D0-46CE-9A71-06E7462A34B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CC71D5-2251-45C3-B8BE-06929D1CB89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,26 +443,26 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="C2">
         <f ca="1">B2*0.5</f>
-        <v>0.2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(5,15)/100</f>
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="E2">
         <f ca="1">D2*0.5</f>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F2">
         <v>0.1</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -479,11 +479,11 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D25" ca="1" si="0">RANDBETWEEN(5,15)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" ca="1" si="1">D3*0.5</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -495,19 +495,19 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B25" ca="1" si="2">RANDBETWEEN(20,40)/100</f>
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C25" ca="1" si="3">B4*0.5</f>
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -519,19 +519,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -551,11 +551,11 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -567,19 +567,19 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -591,19 +591,19 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -615,19 +615,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.115</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F9">
         <v>0.1</v>
@@ -639,22 +639,22 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.115</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -663,22 +663,22 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
-      </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -687,22 +687,22 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -711,22 +711,22 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -735,11 +735,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.155</v>
+        <v>0.18</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
@@ -750,7 +750,7 @@
         <v>0.06</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -759,11 +759,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
@@ -774,7 +774,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="F15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -783,22 +783,22 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -807,22 +807,22 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.155</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -831,22 +831,22 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,22 +855,22 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -879,22 +879,22 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16500000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -903,19 +903,19 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F21">
         <v>0.1</v>
@@ -927,19 +927,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F22">
         <v>0.1</v>
@@ -951,19 +951,19 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F23">
         <v>0.1</v>
@@ -975,11 +975,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.185</v>
+        <v>0.125</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
@@ -999,19 +999,19 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17499999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F25">
         <v>0.1</v>

--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CC71D5-2251-45C3-B8BE-06929D1CB89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC6388-03F8-4701-A132-76E47D5EDB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
   </bookViews>
@@ -405,19 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915BB96-A88E-4797-BAC2-270B960E39C0}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -437,117 +438,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="C2">
         <f ca="1">B2*0.5</f>
-        <v>0.19500000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(5,15)/100</f>
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E2">
         <f ca="1">D2*0.5</f>
-        <v>0.06</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
-      </c>
-      <c r="G2">
-        <f ca="1">RANDBETWEEN(90,120)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <f ca="1">RANDBETWEEN(6,20)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
         <f ca="1">B3*0.5</f>
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D25" ca="1" si="0">RANDBETWEEN(5,15)/100</f>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" ca="1" si="1">D3*0.5</f>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:F25" ca="1" si="2">RANDBETWEEN(6,20)/100</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B25" ca="1" si="2">RANDBETWEEN(20,40)/100</f>
-        <v>0.3</v>
+        <f t="shared" ref="B4:B25" ca="1" si="3">RANDBETWEEN(20,40)/100</f>
+        <v>0.34</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C25" ca="1" si="3">B4*0.5</f>
-        <v>0.15</v>
+        <f t="shared" ref="C4:C25" ca="1" si="4">B4*0.5</f>
+        <v>0.17</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.125</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="F5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
@@ -558,140 +559,146 @@
         <v>0.04</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.27</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
-      </c>
-      <c r="F7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.17499999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
@@ -702,68 +709,71 @@
         <v>5.5E-2</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.19500000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.38</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.32</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
@@ -774,31 +784,33 @@
         <v>5.5E-2</v>
       </c>
       <c r="F15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -806,23 +818,24 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.17499999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F17">
-        <v>0.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -830,23 +843,24 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -854,23 +868,24 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.38</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.155</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -878,23 +893,24 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.31</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.37</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.155</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.185</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F20">
-        <v>0.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -902,23 +918,24 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.17499999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F21">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -926,23 +943,24 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.105</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F22">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -950,23 +968,24 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.19500000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F23">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -974,12 +993,12 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
@@ -990,7 +1009,8 @@
         <v>0.06</v>
       </c>
       <c r="F24">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -998,28 +1018,24 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.37</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.185</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F25">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F26">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC6388-03F8-4701-A132-76E47D5EDB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6FEB8D-A3F3-45A9-9076-AFEF1F4579B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
+    <workbookView xWindow="3936" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{5524CA32-E132-410D-B865-513BEFDAB590}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,23 +444,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="C2">
         <f ca="1">B2*0.5</f>
-        <v>0.17499999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(5,15)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="E2">
         <f ca="1">D2*0.5</f>
-        <v>3.5000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(6,20)/100</f>
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -469,23 +469,23 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(20,40)/100</f>
-        <v>0.4</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C3">
         <f ca="1">B3*0.5</f>
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D25" ca="1" si="0">RANDBETWEEN(5,15)/100</f>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" ca="1" si="1">D3*0.5</f>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F25" ca="1" si="2">RANDBETWEEN(6,20)/100</f>
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -494,23 +494,23 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B25" ca="1" si="3">RANDBETWEEN(20,40)/100</f>
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C25" ca="1" si="4">B4*0.5</f>
-        <v>0.17</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -519,23 +519,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -544,23 +544,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -569,23 +569,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13500000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -594,23 +594,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -619,23 +619,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19</v>
+        <v>0.125</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -644,23 +644,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19500000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -669,23 +669,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13500000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -694,23 +694,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -727,15 +727,15 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
-      </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,23 +744,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -769,11 +769,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
@@ -785,7 +785,7 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -794,23 +794,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -819,23 +819,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -844,23 +844,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14000000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -869,23 +869,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.155</v>
+        <v>0.13</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -894,23 +894,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.185</v>
+        <v>0.17</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
         <v>0.13</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -919,23 +919,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -944,23 +944,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.105</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -969,23 +969,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -994,11 +994,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1019,23 +1019,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.185</v>
+        <v>0.15</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
